--- a/biology/Botanique/Guapira_guianensis/Guapira_guianensis.xlsx
+++ b/biology/Botanique/Guapira_guianensis/Guapira_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guapira guianensis est une espèce d'arbre néotropical de la famille des Nyctaginaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Souvent confondu avec Guapira eggersiana[3], Guapira guianensis est un arbre peu commun, rencontré sur le plateau des Guyanes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souvent confondu avec Guapira eggersiana, Guapira guianensis est un arbre peu commun, rencontré sur le plateau des Guyanes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après certains, les plantes que l'on identifie comme Guapira eggersiana recouvrent un complexe d'espèces restant non résolu, et dont Guapira guianensis Aubl. serait une des composantes à clarifier[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après certains, les plantes que l'on identifie comme Guapira eggersiana recouvrent un complexe d'espèces restant non résolu, et dont Guapira guianensis Aubl. serait une des composantes à clarifier.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour Guapira guianensis (souvent considéré comme synonyme de Guapira eggersiana)[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour Guapira guianensis (souvent considéré comme synonyme de Guapira eggersiana) : 
 « GUAPIRA (Guianenſis). (Tabula 119.) 
 Arbor mediocris ; ramis oppoſitis, nodoſis. Folia oppoſita, petiolata, ovata, acuta, integerrima, glabra ; ad ſummitatem ramorum tria vel quatuor verticillata. Flores albi, racemoſi. Pedunculus florifer longus, ſimplex, è divaricatione ramulorum. Fructus ovatus, ſexſtriatus, coccineus. 
 Floret, fructumque ſert propè habitationem vulgó de Loyola. »
